--- a/PM演習_設計書_○○研○班.xlsx
+++ b/PM演習_設計書_○○研○班.xlsx
@@ -1,37 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\武\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeuchi\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
     <sheet name="概略" sheetId="5" r:id="rId2"/>
     <sheet name="機能" sheetId="4" r:id="rId3"/>
     <sheet name="画面１" sheetId="1" r:id="rId4"/>
-    <sheet name="画面２" sheetId="10" r:id="rId5"/>
-    <sheet name="表紙_内部" sheetId="14" r:id="rId6"/>
-    <sheet name="処理" sheetId="8" r:id="rId7"/>
-    <sheet name="データ" sheetId="12" r:id="rId8"/>
+    <sheet name="表紙_内部" sheetId="14" r:id="rId5"/>
+    <sheet name="処理" sheetId="8" r:id="rId6"/>
+    <sheet name="データ" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">概略!$A$1:$P$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">処理!$A$1:$P$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">処理!$A$1:$P$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_外部!$A$1:$Q$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">表紙_内部!$A$1:$Q$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面２!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">表紙_内部!$A$1:$Q$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -543,26 +540,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面レイアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記に各画面のレイアウトを示す。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カクガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1311,21 +1288,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>シラバス・過去問表示画面</t>
-    <rPh sb="5" eb="8">
-      <t>カコモン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ヒョウジガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2181,45 +2148,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,10 +2217,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2293,7 +2260,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2321,7 @@
         <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2365,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2414,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2501,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2588,7 @@
         <xdr:cNvPr id="5" name="フローチャート : 端子 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,7 +2665,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2752,7 @@
         <xdr:cNvPr id="9" name="カギ線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2808,7 @@
         <xdr:cNvPr id="11" name="カギ線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2864,7 @@
         <xdr:cNvPr id="15" name="グループ化 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2905,8 +2872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3502944" y="3377070"/>
-          <a:ext cx="1360144" cy="477829"/>
+          <a:off x="3775488" y="3475411"/>
+          <a:ext cx="1489392" cy="494687"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -2916,7 +2883,7 @@
           <xdr:cNvPr id="7" name="フローチャート : 判断 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2959,7 +2926,7 @@
           <xdr:cNvPr id="14" name="テキスト ボックス 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3024,7 +2991,7 @@
         <xdr:cNvPr id="16" name="カギ線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3049,7 @@
         <xdr:cNvPr id="19" name="カギ線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3105,7 @@
         <xdr:cNvPr id="22" name="カギ線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,7 +3158,7 @@
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3216,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3274,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +3341,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3413,7 @@
         <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3523,7 +3490,7 @@
         <xdr:cNvPr id="28" name="フローチャート : 端子 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,7 +3567,7 @@
         <xdr:cNvPr id="30" name="グループ化 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,8 +3575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6951035" y="1944005"/>
-          <a:ext cx="854010" cy="370753"/>
+          <a:off x="7553161" y="1991770"/>
+          <a:ext cx="951508" cy="381993"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -3619,7 +3586,7 @@
           <xdr:cNvPr id="32" name="フローチャート : 判断 31">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000020000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3662,7 +3629,7 @@
           <xdr:cNvPr id="33" name="テキスト ボックス 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000021000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3727,7 +3694,7 @@
         <xdr:cNvPr id="34" name="カギ線コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3769,55 +3736,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68791</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>160735</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0062C11-3E4F-45B8-9F13-FE516837B8A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="740833" y="1248833"/>
-          <a:ext cx="8329084" cy="4685110"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3836,7 +3754,7 @@
         <xdr:cNvPr id="28" name="フローチャート : 定義済み処理 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3913,7 +3831,7 @@
         <xdr:cNvPr id="29" name="フローチャート : 定義済み処理 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +3918,7 @@
         <xdr:cNvPr id="30" name="カギ線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +3974,7 @@
         <xdr:cNvPr id="31" name="カギ線コネクタ 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4114,7 +4032,7 @@
         <xdr:cNvPr id="32" name="カギ線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4172,7 +4090,7 @@
         <xdr:cNvPr id="33" name="カギ線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4230,7 +4148,7 @@
         <xdr:cNvPr id="34" name="グループ化 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4249,7 +4167,7 @@
           <xdr:cNvPr id="35" name="ひし形 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000023000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4305,7 +4223,7 @@
           <xdr:cNvPr id="36" name="テキスト ボックス 35">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000024000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000024000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4387,7 +4305,7 @@
         <xdr:cNvPr id="37" name="フローチャート : 定義済み処理 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4484,7 +4402,7 @@
         <xdr:cNvPr id="38" name="カギ線コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4542,7 +4460,7 @@
         <xdr:cNvPr id="39" name="グループ化 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,7 +4479,7 @@
           <xdr:cNvPr id="40" name="ひし形 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000028000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000028000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4617,7 +4535,7 @@
           <xdr:cNvPr id="41" name="テキスト ボックス 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000029000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000029000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4692,7 +4610,7 @@
         <xdr:cNvPr id="42" name="フローチャート : 定義済み処理 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4707,7 @@
         <xdr:cNvPr id="43" name="カギ線コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4845,7 +4763,7 @@
         <xdr:cNvPr id="44" name="カギ線コネクタ 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +4814,7 @@
         <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4961,7 +4879,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5026,7 +4944,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,7 +5009,7 @@
         <xdr:cNvPr id="51" name="テキスト ボックス 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5079,7 @@
         <xdr:cNvPr id="52" name="フローチャート : 手操作入力 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5238,7 +5156,7 @@
         <xdr:cNvPr id="2" name="フローチャート : 磁気ディスク 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5315,7 +5233,7 @@
         <xdr:cNvPr id="25" name="カギ線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5373,7 +5291,7 @@
         <xdr:cNvPr id="27" name="フローチャート : 手操作入力 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5457,7 +5375,7 @@
         <xdr:cNvPr id="45" name="フローチャート : 定義済み処理 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5534,7 +5452,7 @@
         <xdr:cNvPr id="47" name="グループ化 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5553,7 +5471,7 @@
           <xdr:cNvPr id="53" name="ひし形 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000035000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000035000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5609,7 +5527,7 @@
           <xdr:cNvPr id="54" name="テキスト ボックス 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000036000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5677,7 +5595,7 @@
         <xdr:cNvPr id="55" name="フローチャート : 磁気ディスク 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5754,7 +5672,7 @@
         <xdr:cNvPr id="56" name="カギ線コネクタ 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5870,23 +5788,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5922,23 +5823,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6124,18 +6008,18 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.453125" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.453125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.26953125" style="1"/>
-    <col min="20" max="20" width="3.26953125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6151,14 +6035,14 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P1" s="63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="64"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -6174,12 +6058,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P2" s="75"/>
       <c r="Q2" s="76"/>
     </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -6198,7 +6082,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -6217,13 +6101,13 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -6238,7 +6122,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -6257,7 +6141,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -6276,7 +6160,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -6295,7 +6179,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -6314,12 +6198,12 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" s="83"/>
       <c r="F10" s="83"/>
@@ -6335,7 +6219,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -6354,7 +6238,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -6373,13 +6257,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -6394,7 +6278,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -6413,7 +6297,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -6432,7 +6316,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -6451,7 +6335,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -6470,7 +6354,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -6489,14 +6373,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
@@ -6510,7 +6394,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -6529,7 +6413,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6548,7 +6432,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -6567,7 +6451,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6586,7 +6470,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -6605,7 +6489,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6624,7 +6508,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6643,7 +6527,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6662,7 +6546,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6681,7 +6565,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6693,7 +6577,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
@@ -6702,7 +6586,7 @@
       <c r="P29" s="79"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6714,20 +6598,20 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L30" s="66"/>
       <c r="M30" s="66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N30" s="66"/>
       <c r="O30" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P30" s="71"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6746,7 +6630,7 @@
       <c r="P31" s="72"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6765,7 +6649,7 @@
       <c r="P32" s="72"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6784,7 +6668,7 @@
       <c r="P33" s="72"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6803,7 +6687,7 @@
       <c r="P34" s="72"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -6822,7 +6706,7 @@
       <c r="P35" s="72"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="49"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6841,7 +6725,7 @@
       <c r="P36" s="73"/>
       <c r="Q36" s="50"/>
     </row>
-    <row r="37" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -6897,20 +6781,20 @@
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
@@ -6941,14 +6825,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -6966,13 +6850,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6988,11 +6872,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>5</v>
@@ -7010,12 +6894,12 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -7030,7 +6914,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -7048,11 +6932,11 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>6</v>
@@ -7070,12 +6954,12 @@
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -7090,15 +6974,15 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7112,15 +6996,15 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -7134,15 +7018,15 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7156,7 +7040,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -7174,11 +7058,11 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>8</v>
@@ -7196,12 +7080,12 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -7216,7 +7100,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
@@ -7236,7 +7120,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7250,7 +7134,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7264,7 +7148,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -7278,7 +7162,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -7296,7 +7180,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7314,7 +7198,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7332,7 +7216,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7350,7 +7234,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7368,7 +7252,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7386,7 +7270,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -7404,7 +7288,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -7424,7 +7308,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -7441,14 +7325,14 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -7463,12 +7347,12 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -7483,7 +7367,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -7501,7 +7385,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7519,7 +7403,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -7537,7 +7421,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -7555,7 +7439,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -7573,7 +7457,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -7591,7 +7475,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -7609,7 +7493,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -7627,7 +7511,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -7645,7 +7529,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7656,7 +7540,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -7665,7 +7549,7 @@
       <c r="O40" s="2"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -7710,20 +7594,20 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
@@ -7754,14 +7638,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -7779,10 +7663,10 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>13</v>
@@ -7801,7 +7685,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
@@ -7821,7 +7705,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -7839,27 +7723,27 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="95" t="s">
+      <c r="H7" s="99"/>
+      <c r="I7" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="96"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="99"/>
       <c r="M7" s="38" t="s">
         <v>19</v>
       </c>
@@ -7867,11 +7751,11 @@
         <v>20</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P7" s="44"/>
     </row>
-    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -7879,20 +7763,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="93" t="s">
+      <c r="F8" s="96"/>
+      <c r="G8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="93" t="s">
+      <c r="H8" s="96"/>
+      <c r="I8" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="94"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
       <c r="M8" s="23" t="s">
         <v>28</v>
       </c>
@@ -7904,7 +7788,7 @@
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -7912,18 +7796,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="93" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="93" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="94"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
       <c r="M9" s="23" t="s">
         <v>29</v>
       </c>
@@ -7931,11 +7815,11 @@
         <v>32</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -7943,18 +7827,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="93" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="94"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="94"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
       <c r="M10" s="23" t="s">
         <v>30</v>
       </c>
@@ -7962,11 +7846,11 @@
         <v>33</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -7974,30 +7858,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="93" t="s">
+      <c r="E11" s="94"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="96"/>
+      <c r="I11" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="93" t="s">
+      <c r="N11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -8005,24 +7889,24 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="93" t="s">
+      <c r="F12" s="96"/>
+      <c r="G12" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="94"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="96"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -8030,20 +7914,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="96"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -8051,20 +7935,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -8072,20 +7956,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -8093,20 +7977,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -8114,20 +7998,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -8135,20 +8019,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -8156,20 +8040,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="96"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -8177,20 +8061,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -8198,38 +8082,38 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -8247,7 +8131,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -8265,7 +8149,7 @@
       <c r="O24" s="40"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -8283,7 +8167,7 @@
       <c r="O25" s="41"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -8301,7 +8185,7 @@
       <c r="O26" s="41"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -8319,7 +8203,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -8337,7 +8221,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8355,7 +8239,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -8373,7 +8257,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -8391,7 +8275,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -8409,7 +8293,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -8427,7 +8311,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -8445,7 +8329,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -8463,7 +8347,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -8481,7 +8365,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -8499,7 +8383,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -8517,7 +8401,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -8535,7 +8419,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8562,41 +8446,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -8613,6 +8462,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -8642,24 +8526,24 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="113" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="113" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
@@ -8690,14 +8574,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -8715,13 +8599,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -8737,14 +8621,14 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -8759,7 +8643,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
@@ -8779,213 +8663,213 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="105" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102" t="s">
+      <c r="C8" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102" t="s">
+      <c r="C9" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102" t="s">
+      <c r="C10" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -9003,11 +8887,11 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>40</v>
@@ -9025,7 +8909,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
@@ -9045,7 +8929,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9063,7 +8947,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9081,7 +8965,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9099,7 +8983,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9117,7 +9001,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9135,7 +9019,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9153,7 +9037,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9171,7 +9055,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9189,7 +9073,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9207,7 +9091,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9225,7 +9109,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9243,7 +9127,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9261,7 +9145,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9279,7 +9163,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9297,7 +9181,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9315,7 +9199,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9333,7 +9217,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9351,7 +9235,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -9369,7 +9253,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -9387,7 +9271,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -9405,7 +9289,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -9425,16 +9309,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E8:F8"/>
@@ -9451,13 +9332,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9472,794 +9356,24 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="87" t="str">
-        <f>表紙_外部!D10</f>
-        <v>（システム名をここに記入すると全体に反映される）</v>
-      </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.453125" style="12" customWidth="1"/>
-    <col min="4" max="17" width="8.453125" style="1" customWidth="1"/>
-    <col min="18" max="19" width="2.26953125" style="1"/>
-    <col min="20" max="20" width="3.26953125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="8.5" style="12" customWidth="1"/>
+    <col min="4" max="17" width="8.5" style="1" customWidth="1"/>
+    <col min="18" max="19" width="2.25" style="1"/>
+    <col min="20" max="20" width="3.25" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="str">
         <f>表紙_外部!A1</f>
         <v>ユーザ教員氏名をここに記入</v>
@@ -10278,14 +9392,14 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P1" s="110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="64"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -10301,12 +9415,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P2" s="75"/>
       <c r="Q2" s="76"/>
     </row>
-    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -10325,7 +9439,7 @@
       <c r="P3" s="57"/>
       <c r="Q3" s="59"/>
     </row>
-    <row r="4" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="49"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -10344,13 +9458,13 @@
       <c r="P4" s="57"/>
       <c r="Q4" s="59"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="49"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81"/>
@@ -10365,7 +9479,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="49"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -10384,7 +9498,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -10403,7 +9517,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="49"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -10422,7 +9536,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="49"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -10441,7 +9555,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="50"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -10463,7 +9577,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
     </row>
-    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -10482,7 +9596,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
     </row>
-    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -10501,13 +9615,13 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
@@ -10522,7 +9636,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="50"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -10541,7 +9655,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="50"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -10560,7 +9674,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="50"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -10579,7 +9693,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="50"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -10598,7 +9712,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="50"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -10617,14 +9731,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="49"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="109"/>
       <c r="H19" s="109"/>
@@ -10638,7 +9752,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="50"/>
     </row>
-    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="49"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -10657,7 +9771,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="50"/>
     </row>
-    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="49"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -10676,7 +9790,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="50"/>
     </row>
-    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="49"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -10695,7 +9809,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="50"/>
     </row>
-    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -10714,7 +9828,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="50"/>
     </row>
-    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="49"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -10733,7 +9847,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="50"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="49"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -10752,7 +9866,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="50"/>
     </row>
-    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="49"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -10771,7 +9885,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="50"/>
     </row>
-    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -10790,7 +9904,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="50"/>
     </row>
-    <row r="28" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -10800,7 +9914,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="106" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" s="107"/>
       <c r="K28" s="107"/>
@@ -10811,7 +9925,7 @@
       <c r="P28" s="108"/>
       <c r="Q28" s="50"/>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="49"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -10821,24 +9935,24 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="111" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L29" s="78"/>
       <c r="M29" s="112" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N29" s="112"/>
       <c r="O29" s="112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P29" s="115"/>
       <c r="Q29" s="50"/>
     </row>
-    <row r="30" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="49"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -10857,7 +9971,7 @@
       <c r="P30" s="72"/>
       <c r="Q30" s="50"/>
     </row>
-    <row r="31" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="49"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -10876,7 +9990,7 @@
       <c r="P31" s="72"/>
       <c r="Q31" s="50"/>
     </row>
-    <row r="32" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="49"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -10895,7 +10009,7 @@
       <c r="P32" s="72"/>
       <c r="Q32" s="50"/>
     </row>
-    <row r="33" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="49"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -10914,7 +10028,7 @@
       <c r="P33" s="72"/>
       <c r="Q33" s="50"/>
     </row>
-    <row r="34" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="49"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -10933,7 +10047,7 @@
       <c r="P34" s="72"/>
       <c r="Q34" s="50"/>
     </row>
-    <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -10952,7 +10066,7 @@
       <c r="P35" s="73"/>
       <c r="Q35" s="50"/>
     </row>
-    <row r="36" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -10998,7 +10112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -11009,24 +10123,24 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
@@ -11057,14 +10171,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11082,13 +10196,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -11104,11 +10218,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11124,59 +10238,59 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
+      <c r="B6" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="68">
         <v>3</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="68"/>
       <c r="H6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="68" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="68" t="s">
-        <v>52</v>
       </c>
       <c r="F7" s="68"/>
       <c r="G7" s="68"/>
       <c r="H7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
+        <v>47</v>
+      </c>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -11194,7 +10308,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
@@ -11212,7 +10326,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -11230,7 +10344,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -11248,7 +10362,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -11266,7 +10380,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -11284,7 +10398,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -11302,7 +10416,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -11320,7 +10434,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -11338,7 +10452,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -11356,7 +10470,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
@@ -11373,10 +10487,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
@@ -11394,7 +10508,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
@@ -11412,7 +10526,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
@@ -11430,7 +10544,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -11448,7 +10562,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -11466,7 +10580,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -11484,7 +10598,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -11502,7 +10616,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -11520,7 +10634,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -11538,7 +10652,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -11556,7 +10670,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -11574,7 +10688,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -11592,7 +10706,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -11609,10 +10723,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -11630,7 +10744,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -11648,7 +10762,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -11666,7 +10780,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
@@ -11684,7 +10798,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
@@ -11702,7 +10816,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
@@ -11720,7 +10834,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
@@ -11738,7 +10852,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
@@ -11756,7 +10870,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -11776,17 +10890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11798,7 +10912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -11809,24 +10923,24 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.26953125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.26953125" style="1"/>
-    <col min="19" max="19" width="3.26953125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.26953125" style="1"/>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I1" s="91"/>
       <c r="J1" s="91"/>
@@ -11857,14 +10971,14 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11882,13 +10996,13 @@
       <c r="O3" s="7"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -11904,11 +11018,11 @@
       <c r="O4" s="2"/>
       <c r="P4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11924,7 +11038,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -11942,14 +11056,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -11964,37 +11078,37 @@
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="101"/>
+      <c r="G8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="J8" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="27"/>
@@ -12015,7 +11129,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="27"/>
@@ -12036,7 +11150,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="27"/>
@@ -12057,7 +11171,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
@@ -12078,7 +11192,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
@@ -12099,7 +11213,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
@@ -12120,7 +11234,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="27"/>
@@ -12141,7 +11255,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="27"/>
@@ -12162,7 +11276,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="32"/>
@@ -12183,7 +11297,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12204,7 +11318,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12225,7 +11339,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12246,7 +11360,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12267,7 +11381,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12288,7 +11402,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12309,7 +11423,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -12330,7 +11444,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -12351,7 +11465,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -12372,7 +11486,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -12390,7 +11504,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -12408,7 +11522,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -12426,7 +11540,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -12444,7 +11558,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -12462,7 +11576,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -12480,7 +11594,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -12498,7 +11612,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -12516,7 +11630,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -12534,7 +11648,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -12552,7 +11666,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -12570,7 +11684,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -12588,7 +11702,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -12606,7 +11720,7 @@
       <c r="O39" s="2"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -12626,12 +11740,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -12648,25 +11775,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
